--- a/jupyter_notebooks/file/input/basic_example_v0/network.xlsx
+++ b/jupyter_notebooks/file/input/basic_example_v0/network.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FBK106\Documents\Repositories\ResiliencyTool\jupyter_notebooks\file\input\example_1.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\ResiliencyTool\jupyter_notebooks\file\input\basic_example_v0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D13C7A-87CC-4CB2-BC15-2968A9635F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFB432E-01E7-470D-BF32-69709007F630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{9ECEC293-7360-4DDE-9C10-8A2C51BA16DF}"/>
+    <workbookView xWindow="-25815" yWindow="3855" windowWidth="21600" windowHeight="11325" firstSheet="5" activeTab="13" xr2:uid="{9ECEC293-7360-4DDE-9C10-8A2C51BA16DF}"/>
   </bookViews>
   <sheets>
     <sheet name="simulation" sheetId="12" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="cost" sheetId="10" r:id="rId11"/>
     <sheet name="profiles" sheetId="11" r:id="rId12"/>
     <sheet name="crews" sheetId="13" r:id="rId13"/>
+    <sheet name="switches" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="168">
   <si>
     <t>name</t>
   </si>
@@ -533,6 +534,24 @@
   </si>
   <si>
     <t>slack</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>et</t>
+  </si>
+  <si>
+    <t>in_ka</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>associated elements</t>
+  </si>
+  <si>
+    <t>ignore montecarlo</t>
   </si>
 </sst>
 </file>
@@ -881,15 +900,15 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>146</v>
       </c>
@@ -900,7 +919,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -915,7 +934,7 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -926,7 +945,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -937,7 +956,7 @@
         <v>44562.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -962,21 +981,21 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -1044,19 +1063,19 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1101,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1096,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1110,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1124,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -1138,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -1152,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>141</v>
       </c>
@@ -1166,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>142</v>
       </c>
@@ -1180,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1194,7 +1213,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1208,7 +1227,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1222,7 +1241,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>134</v>
       </c>
@@ -1236,7 +1255,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -1250,7 +1269,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -1264,7 +1283,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -1278,7 +1297,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -1306,14 +1325,14 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="12" customWidth="1"/>
-    <col min="10" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -1342,7 +1361,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -1371,7 +1390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <f>DATE(2022,1,1)+TIME(0,0,0)</f>
         <v>44562</v>
@@ -1440,7 +1459,7 @@
         <v>4.27432788186315</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <f>A3+TIME(1,0,0)</f>
         <v>44562.041666666664</v>
@@ -1506,7 +1525,7 @@
         <v>5.6211919330659503</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A50" si="9">A4+TIME(1,0,0)</f>
         <v>44562.083333333328</v>
@@ -1572,7 +1591,7 @@
         <v>1.82564940090546</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f t="shared" si="9"/>
         <v>44562.124999999993</v>
@@ -1638,7 +1657,7 @@
         <v>3.1417148327448299</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <f t="shared" si="9"/>
         <v>44562.166666666657</v>
@@ -1704,7 +1723,7 @@
         <v>2.44040365859968</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <f t="shared" si="9"/>
         <v>44562.208333333321</v>
@@ -1770,7 +1789,7 @@
         <v>1.68806951706772</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <f t="shared" si="9"/>
         <v>44562.249999999985</v>
@@ -1836,7 +1855,7 @@
         <v>5.7615926339802899</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <f t="shared" si="9"/>
         <v>44562.29166666665</v>
@@ -1902,7 +1921,7 @@
         <v>4.4746755565582301</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <f t="shared" si="9"/>
         <v>44562.333333333314</v>
@@ -1968,7 +1987,7 @@
         <v>0.99233826848758999</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <f t="shared" si="9"/>
         <v>44562.374999999978</v>
@@ -2034,7 +2053,7 @@
         <v>1.4504413873470099</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <f t="shared" si="9"/>
         <v>44562.416666666642</v>
@@ -2100,7 +2119,7 @@
         <v>3.4424487899564999</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <f t="shared" si="9"/>
         <v>44562.458333333307</v>
@@ -2166,7 +2185,7 @@
         <v>2.8984195901566401</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <f t="shared" si="9"/>
         <v>44562.499999999971</v>
@@ -2232,7 +2251,7 @@
         <v>0.27373317868428698</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <f t="shared" si="9"/>
         <v>44562.541666666635</v>
@@ -2298,7 +2317,7 @@
         <v>2.2835876161010198</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <f t="shared" si="9"/>
         <v>44562.583333333299</v>
@@ -2364,7 +2383,7 @@
         <v>3.2042372835921999</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f t="shared" si="9"/>
         <v>44562.624999999964</v>
@@ -2430,7 +2449,7 @@
         <v>4.3549335670475404</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <f t="shared" si="9"/>
         <v>44562.666666666628</v>
@@ -2496,7 +2515,7 @@
         <v>1.4410553784787401</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <f t="shared" si="9"/>
         <v>44562.708333333292</v>
@@ -2562,7 +2581,7 @@
         <v>1.06966709596261</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <f t="shared" si="9"/>
         <v>44562.749999999956</v>
@@ -2628,7 +2647,7 @@
         <v>2.1763329976830499</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <f t="shared" si="9"/>
         <v>44562.791666666621</v>
@@ -2694,7 +2713,7 @@
         <v>1.6300007973402</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <f t="shared" si="9"/>
         <v>44562.833333333285</v>
@@ -2760,7 +2779,7 @@
         <v>5.39135925399553</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <f t="shared" si="9"/>
         <v>44562.874999999949</v>
@@ -2826,7 +2845,7 @@
         <v>2.6246176606670999</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <f t="shared" si="9"/>
         <v>44562.916666666613</v>
@@ -2892,7 +2911,7 @@
         <v>1.7617742571331001</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <f t="shared" si="9"/>
         <v>44562.958333333278</v>
@@ -2958,7 +2977,7 @@
         <v>3.4528973487669998</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <f t="shared" si="9"/>
         <v>44562.999999999942</v>
@@ -3024,7 +3043,7 @@
         <v>4.2602474943845499</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <f t="shared" si="9"/>
         <v>44563.041666666606</v>
@@ -3090,7 +3109,7 @@
         <v>5.8161839179126202</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <f t="shared" si="9"/>
         <v>44563.08333333327</v>
@@ -3156,7 +3175,7 @@
         <v>1.46193657438067</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <f t="shared" si="9"/>
         <v>44563.124999999935</v>
@@ -3222,7 +3241,7 @@
         <v>1.6591177962361401</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <f t="shared" si="9"/>
         <v>44563.166666666599</v>
@@ -3288,7 +3307,7 @@
         <v>5.4597621212607299</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <f t="shared" si="9"/>
         <v>44563.208333333263</v>
@@ -3354,7 +3373,7 @@
         <v>1.25181920815158</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <f t="shared" si="9"/>
         <v>44563.249999999927</v>
@@ -3420,7 +3439,7 @@
         <v>3.3509127315398102</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <f t="shared" si="9"/>
         <v>44563.291666666591</v>
@@ -3486,7 +3505,7 @@
         <v>5.3115677444649299</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <f t="shared" si="9"/>
         <v>44563.333333333256</v>
@@ -3552,7 +3571,7 @@
         <v>5.4721211104801402</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <f t="shared" si="9"/>
         <v>44563.37499999992</v>
@@ -3618,7 +3637,7 @@
         <v>4.17004847290369</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <f t="shared" si="9"/>
         <v>44563.416666666584</v>
@@ -3684,7 +3703,7 @@
         <v>5.7350102271752199</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <f t="shared" si="9"/>
         <v>44563.458333333248</v>
@@ -3750,7 +3769,7 @@
         <v>3.0532018578787898</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <f t="shared" si="9"/>
         <v>44563.499999999913</v>
@@ -3816,7 +3835,7 @@
         <v>4.5127529817461802</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <f t="shared" si="9"/>
         <v>44563.541666666577</v>
@@ -3882,7 +3901,7 @@
         <v>1.81882568283527</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <f t="shared" si="9"/>
         <v>44563.583333333241</v>
@@ -3948,7 +3967,7 @@
         <v>4.1670179471692004</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <f t="shared" si="9"/>
         <v>44563.624999999905</v>
@@ -4014,7 +4033,7 @@
         <v>5.0145941909878102</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <f t="shared" si="9"/>
         <v>44563.66666666657</v>
@@ -4080,7 +4099,7 @@
         <v>4.6203567464908799</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <f t="shared" si="9"/>
         <v>44563.708333333234</v>
@@ -4146,7 +4165,7 @@
         <v>3.1860373031700502</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <f t="shared" si="9"/>
         <v>44563.749999999898</v>
@@ -4212,7 +4231,7 @@
         <v>1.4542112247108301</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <f t="shared" si="9"/>
         <v>44563.791666666562</v>
@@ -4278,7 +4297,7 @@
         <v>0.58642957599119605</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <f t="shared" si="9"/>
         <v>44563.833333333227</v>
@@ -4344,7 +4363,7 @@
         <v>2.0991375142243198</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <f t="shared" si="9"/>
         <v>44563.874999999891</v>
@@ -4410,7 +4429,7 @@
         <v>5.4879410997586398</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <f t="shared" si="9"/>
         <v>44563.916666666555</v>
@@ -4476,7 +4495,7 @@
         <v>5.0588261933592902</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <f t="shared" si="9"/>
         <v>44563.958333333219</v>
@@ -4557,33 +4576,83 @@
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>156</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF10ED9-B96C-4356-962E-96AA9690A2E5}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4596,9 +4665,9 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4609,7 +4678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -4630,19 +4699,19 @@
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4689,7 +4758,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4720,7 +4789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4743,7 +4812,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4768,7 +4837,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4793,7 +4862,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -4818,7 +4887,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -4843,7 +4912,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -4868,7 +4937,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -4893,7 +4962,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -4918,7 +4987,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -4943,7 +5012,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -4968,7 +5037,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -4993,7 +5062,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -5018,7 +5087,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -5043,7 +5112,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -5068,7 +5137,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>117</v>
       </c>
@@ -5093,7 +5162,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -5118,7 +5187,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -5158,26 +5227,26 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5224,7 +5293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -5247,7 +5316,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -5270,7 +5339,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5293,7 +5362,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>134</v>
       </c>
@@ -5316,7 +5385,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -5339,7 +5408,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -5362,7 +5431,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -5385,7 +5454,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -5421,34 +5490,34 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5522,7 +5591,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -5546,7 +5615,7 @@
       </c>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -5570,7 +5639,7 @@
       </c>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -5594,7 +5663,7 @@
       </c>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -5618,7 +5687,7 @@
       </c>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -5642,7 +5711,7 @@
       </c>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>142</v>
       </c>
@@ -5666,7 +5735,7 @@
       </c>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M8" s="2"/>
       <c r="V8" s="2"/>
     </row>
@@ -5683,28 +5752,28 @@
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5757,7 +5826,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -5793,27 +5862,27 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5863,7 +5932,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -5926,21 +5995,21 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5972,7 +6041,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6001,31 +6070,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA2B7A3-5BF0-4668-9FF0-C3329253032F}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6075,7 +6144,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -6111,7 +6180,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -6144,7 +6213,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -6177,7 +6246,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -6210,7 +6279,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -6243,7 +6312,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -6276,7 +6345,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -6309,7 +6378,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -6342,7 +6411,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -6375,7 +6444,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -6408,7 +6477,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -6441,7 +6510,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -6474,7 +6543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -6507,7 +6576,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -6540,7 +6609,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -6573,7 +6642,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -6611,4 +6680,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{c135c4ba-2280-41f8-be7d-6f21d368baa3}" enabled="1" method="Standard" siteId="{24139d14-c62c-4c47-8bdd-ce71ea1d50cf}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/jupyter_notebooks/file/input/basic_example_v0/network.xlsx
+++ b/jupyter_notebooks/file/input/basic_example_v0/network.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\ResiliencyTool\jupyter_notebooks\file\input\basic_example_v0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFB432E-01E7-470D-BF32-69709007F630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43277EF4-BFF7-4032-BA6E-55E8CB891586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25815" yWindow="3855" windowWidth="21600" windowHeight="11325" firstSheet="5" activeTab="13" xr2:uid="{9ECEC293-7360-4DDE-9C10-8A2C51BA16DF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="13" xr2:uid="{9ECEC293-7360-4DDE-9C10-8A2C51BA16DF}"/>
   </bookViews>
   <sheets>
     <sheet name="simulation" sheetId="12" r:id="rId1"/>
@@ -4612,7 +4612,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/jupyter_notebooks/file/input/basic_example_v0/network.xlsx
+++ b/jupyter_notebooks/file/input/basic_example_v0/network.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engie-my.sharepoint.com/personal/mn6461_engie_com/Documents/Dokumente/GitHub/reXplan-repo/jupyter_notebooks/file/input/basic_example_v0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_86B647F7A2BA53124DDE03F5D9B932B28B309D31" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{790323E8-C45E-4AE1-8D83-37C293F90A94}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_86B647F7A2BA53124DDE03F5D9B932B28B309D31" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B502A7E4-9DA7-4462-85A3-35065474F7D5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5644" uniqueCount="1282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5870" uniqueCount="1284">
   <si>
     <t>index</t>
   </si>
@@ -3893,6 +3893,12 @@
   </si>
   <si>
     <t>HV2 Switch 491</t>
+  </si>
+  <si>
+    <t>tower_type3</t>
+  </si>
+  <si>
+    <t>rp1</t>
   </si>
 </sst>
 </file>
@@ -3902,7 +3908,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3914,6 +3920,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3965,6 +3977,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4254,7 +4270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L373"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13004,14 +13020,14 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -13079,12 +13095,12 @@
   <dimension ref="A1:IW12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="10" width="13" customWidth="1"/>
     <col min="11" max="80" width="14" customWidth="1"/>
     <col min="81" max="89" width="13" customWidth="1"/>
@@ -32461,7 +32477,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -35053,7 +35071,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -37670,7 +37690,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="N93" workbookViewId="0">
+      <selection activeCell="U118" sqref="U118"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -37778,8 +37800,20 @@
       <c r="H2">
         <v>1</v>
       </c>
+      <c r="N2" t="s">
+        <v>1282</v>
+      </c>
       <c r="O2">
         <v>100</v>
+      </c>
+      <c r="Q2">
+        <v>6</v>
+      </c>
+      <c r="R2">
+        <v>0.25</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -37807,8 +37841,20 @@
       <c r="H3">
         <v>1</v>
       </c>
+      <c r="N3" t="s">
+        <v>1282</v>
+      </c>
       <c r="O3">
         <v>100</v>
+      </c>
+      <c r="Q3">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>0.25</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -37836,8 +37882,20 @@
       <c r="H4">
         <v>1</v>
       </c>
+      <c r="N4" t="s">
+        <v>1282</v>
+      </c>
       <c r="O4">
         <v>100</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <v>0.25</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -37865,8 +37923,20 @@
       <c r="H5">
         <v>1</v>
       </c>
+      <c r="N5" t="s">
+        <v>1282</v>
+      </c>
       <c r="O5">
         <v>100</v>
+      </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>0.25</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -37894,8 +37964,20 @@
       <c r="H6">
         <v>1</v>
       </c>
+      <c r="N6" t="s">
+        <v>1282</v>
+      </c>
       <c r="O6">
         <v>100</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>0.25</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -37923,8 +38005,20 @@
       <c r="H7">
         <v>1</v>
       </c>
+      <c r="N7" t="s">
+        <v>1282</v>
+      </c>
       <c r="O7">
         <v>100</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <v>0.25</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -37952,8 +38046,20 @@
       <c r="H8">
         <v>1</v>
       </c>
+      <c r="N8" t="s">
+        <v>1282</v>
+      </c>
       <c r="O8">
         <v>100</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>0.25</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -37981,8 +38087,20 @@
       <c r="H9">
         <v>1</v>
       </c>
+      <c r="N9" t="s">
+        <v>1282</v>
+      </c>
       <c r="O9">
         <v>100</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>0.25</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -38010,8 +38128,20 @@
       <c r="H10">
         <v>1</v>
       </c>
+      <c r="N10" t="s">
+        <v>1282</v>
+      </c>
       <c r="O10">
         <v>100</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10">
+        <v>0.25</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -38039,8 +38169,20 @@
       <c r="H11">
         <v>1</v>
       </c>
+      <c r="N11" t="s">
+        <v>1282</v>
+      </c>
       <c r="O11">
         <v>100</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+      <c r="R11">
+        <v>0.25</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -38068,8 +38210,20 @@
       <c r="H12">
         <v>1</v>
       </c>
+      <c r="N12" t="s">
+        <v>1282</v>
+      </c>
       <c r="O12">
         <v>100</v>
+      </c>
+      <c r="Q12">
+        <v>6</v>
+      </c>
+      <c r="R12">
+        <v>0.25</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -38097,8 +38251,20 @@
       <c r="H13">
         <v>1</v>
       </c>
+      <c r="N13" t="s">
+        <v>1282</v>
+      </c>
       <c r="O13">
         <v>100</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13">
+        <v>0.25</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -38126,8 +38292,20 @@
       <c r="H14">
         <v>1</v>
       </c>
+      <c r="N14" t="s">
+        <v>1282</v>
+      </c>
       <c r="O14">
         <v>100</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="R14">
+        <v>0.25</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -38155,8 +38333,20 @@
       <c r="H15">
         <v>1</v>
       </c>
+      <c r="N15" t="s">
+        <v>1282</v>
+      </c>
       <c r="O15">
         <v>100</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+      <c r="R15">
+        <v>0.25</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -38184,11 +38374,23 @@
       <c r="H16">
         <v>1</v>
       </c>
+      <c r="N16" t="s">
+        <v>1282</v>
+      </c>
       <c r="O16">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q16">
+        <v>6</v>
+      </c>
+      <c r="R16">
+        <v>0.25</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>624</v>
       </c>
@@ -38213,11 +38415,23 @@
       <c r="H17">
         <v>1</v>
       </c>
+      <c r="N17" t="s">
+        <v>1282</v>
+      </c>
       <c r="O17">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q17">
+        <v>6</v>
+      </c>
+      <c r="R17">
+        <v>0.25</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>625</v>
       </c>
@@ -38242,11 +38456,23 @@
       <c r="H18">
         <v>1</v>
       </c>
+      <c r="N18" t="s">
+        <v>1282</v>
+      </c>
       <c r="O18">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q18">
+        <v>6</v>
+      </c>
+      <c r="R18">
+        <v>0.25</v>
+      </c>
+      <c r="S18" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>626</v>
       </c>
@@ -38271,11 +38497,23 @@
       <c r="H19">
         <v>1</v>
       </c>
+      <c r="N19" t="s">
+        <v>1282</v>
+      </c>
       <c r="O19">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q19">
+        <v>6</v>
+      </c>
+      <c r="R19">
+        <v>0.25</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>627</v>
       </c>
@@ -38300,11 +38538,23 @@
       <c r="H20">
         <v>1</v>
       </c>
+      <c r="N20" t="s">
+        <v>1282</v>
+      </c>
       <c r="O20">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q20">
+        <v>6</v>
+      </c>
+      <c r="R20">
+        <v>0.25</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>628</v>
       </c>
@@ -38329,11 +38579,23 @@
       <c r="H21">
         <v>1</v>
       </c>
+      <c r="N21" t="s">
+        <v>1282</v>
+      </c>
       <c r="O21">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q21">
+        <v>6</v>
+      </c>
+      <c r="R21">
+        <v>0.25</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>629</v>
       </c>
@@ -38358,11 +38620,23 @@
       <c r="H22">
         <v>1</v>
       </c>
+      <c r="N22" t="s">
+        <v>1282</v>
+      </c>
       <c r="O22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q22">
+        <v>6</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>630</v>
       </c>
@@ -38387,11 +38661,23 @@
       <c r="H23">
         <v>1</v>
       </c>
+      <c r="N23" t="s">
+        <v>1282</v>
+      </c>
       <c r="O23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q23">
+        <v>6</v>
+      </c>
+      <c r="R23">
+        <v>0.25</v>
+      </c>
+      <c r="S23" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>631</v>
       </c>
@@ -38416,11 +38702,23 @@
       <c r="H24">
         <v>1</v>
       </c>
+      <c r="N24" t="s">
+        <v>1282</v>
+      </c>
       <c r="O24">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q24">
+        <v>6</v>
+      </c>
+      <c r="R24">
+        <v>0.25</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>632</v>
       </c>
@@ -38445,11 +38743,23 @@
       <c r="H25">
         <v>1</v>
       </c>
+      <c r="N25" t="s">
+        <v>1282</v>
+      </c>
       <c r="O25">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q25">
+        <v>6</v>
+      </c>
+      <c r="R25">
+        <v>0.25</v>
+      </c>
+      <c r="S25" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>633</v>
       </c>
@@ -38474,11 +38784,23 @@
       <c r="H26">
         <v>1</v>
       </c>
+      <c r="N26" t="s">
+        <v>1282</v>
+      </c>
       <c r="O26">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q26">
+        <v>6</v>
+      </c>
+      <c r="R26">
+        <v>0.25</v>
+      </c>
+      <c r="S26" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>634</v>
       </c>
@@ -38503,11 +38825,23 @@
       <c r="H27">
         <v>1</v>
       </c>
+      <c r="N27" t="s">
+        <v>1282</v>
+      </c>
       <c r="O27">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q27">
+        <v>6</v>
+      </c>
+      <c r="R27">
+        <v>0.25</v>
+      </c>
+      <c r="S27" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>635</v>
       </c>
@@ -38532,11 +38866,23 @@
       <c r="H28">
         <v>1</v>
       </c>
+      <c r="N28" t="s">
+        <v>1282</v>
+      </c>
       <c r="O28">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q28">
+        <v>6</v>
+      </c>
+      <c r="R28">
+        <v>0.25</v>
+      </c>
+      <c r="S28" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>636</v>
       </c>
@@ -38561,11 +38907,23 @@
       <c r="H29">
         <v>1</v>
       </c>
+      <c r="N29" t="s">
+        <v>1282</v>
+      </c>
       <c r="O29">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q29">
+        <v>6</v>
+      </c>
+      <c r="R29">
+        <v>0.25</v>
+      </c>
+      <c r="S29" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>637</v>
       </c>
@@ -38590,11 +38948,23 @@
       <c r="H30">
         <v>1</v>
       </c>
+      <c r="N30" t="s">
+        <v>1282</v>
+      </c>
       <c r="O30">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <v>0.25</v>
+      </c>
+      <c r="S30" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>638</v>
       </c>
@@ -38619,11 +38989,23 @@
       <c r="H31">
         <v>1</v>
       </c>
+      <c r="N31" t="s">
+        <v>1282</v>
+      </c>
       <c r="O31">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q31">
+        <v>6</v>
+      </c>
+      <c r="R31">
+        <v>0.25</v>
+      </c>
+      <c r="S31" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>639</v>
       </c>
@@ -38648,11 +39030,23 @@
       <c r="H32">
         <v>1</v>
       </c>
+      <c r="N32" t="s">
+        <v>1282</v>
+      </c>
       <c r="O32">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q32">
+        <v>6</v>
+      </c>
+      <c r="R32">
+        <v>0.25</v>
+      </c>
+      <c r="S32" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>640</v>
       </c>
@@ -38677,11 +39071,23 @@
       <c r="H33">
         <v>1</v>
       </c>
+      <c r="N33" t="s">
+        <v>1282</v>
+      </c>
       <c r="O33">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q33">
+        <v>6</v>
+      </c>
+      <c r="R33">
+        <v>0.25</v>
+      </c>
+      <c r="S33" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>641</v>
       </c>
@@ -38706,11 +39112,23 @@
       <c r="H34">
         <v>1</v>
       </c>
+      <c r="N34" t="s">
+        <v>1282</v>
+      </c>
       <c r="O34">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q34">
+        <v>6</v>
+      </c>
+      <c r="R34">
+        <v>0.25</v>
+      </c>
+      <c r="S34" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>642</v>
       </c>
@@ -38735,11 +39153,23 @@
       <c r="H35">
         <v>1</v>
       </c>
+      <c r="N35" t="s">
+        <v>1282</v>
+      </c>
       <c r="O35">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q35">
+        <v>6</v>
+      </c>
+      <c r="R35">
+        <v>0.25</v>
+      </c>
+      <c r="S35" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>643</v>
       </c>
@@ -38764,11 +39194,23 @@
       <c r="H36">
         <v>1</v>
       </c>
+      <c r="N36" t="s">
+        <v>1282</v>
+      </c>
       <c r="O36">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q36">
+        <v>6</v>
+      </c>
+      <c r="R36">
+        <v>0.25</v>
+      </c>
+      <c r="S36" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>644</v>
       </c>
@@ -38793,11 +39235,23 @@
       <c r="H37">
         <v>1</v>
       </c>
+      <c r="N37" t="s">
+        <v>1282</v>
+      </c>
       <c r="O37">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q37">
+        <v>6</v>
+      </c>
+      <c r="R37">
+        <v>0.25</v>
+      </c>
+      <c r="S37" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>645</v>
       </c>
@@ -38822,11 +39276,23 @@
       <c r="H38">
         <v>1</v>
       </c>
+      <c r="N38" t="s">
+        <v>1282</v>
+      </c>
       <c r="O38">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q38">
+        <v>6</v>
+      </c>
+      <c r="R38">
+        <v>0.25</v>
+      </c>
+      <c r="S38" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>646</v>
       </c>
@@ -38851,11 +39317,23 @@
       <c r="H39">
         <v>1</v>
       </c>
+      <c r="N39" t="s">
+        <v>1282</v>
+      </c>
       <c r="O39">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q39">
+        <v>6</v>
+      </c>
+      <c r="R39">
+        <v>0.25</v>
+      </c>
+      <c r="S39" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>647</v>
       </c>
@@ -38880,11 +39358,23 @@
       <c r="H40">
         <v>1</v>
       </c>
+      <c r="N40" t="s">
+        <v>1282</v>
+      </c>
       <c r="O40">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q40">
+        <v>6</v>
+      </c>
+      <c r="R40">
+        <v>0.25</v>
+      </c>
+      <c r="S40" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>648</v>
       </c>
@@ -38909,11 +39399,23 @@
       <c r="H41">
         <v>1</v>
       </c>
+      <c r="N41" t="s">
+        <v>1282</v>
+      </c>
       <c r="O41">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q41">
+        <v>6</v>
+      </c>
+      <c r="R41">
+        <v>0.25</v>
+      </c>
+      <c r="S41" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>649</v>
       </c>
@@ -38938,11 +39440,23 @@
       <c r="H42">
         <v>1</v>
       </c>
+      <c r="N42" t="s">
+        <v>1282</v>
+      </c>
       <c r="O42">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q42">
+        <v>6</v>
+      </c>
+      <c r="R42">
+        <v>0.25</v>
+      </c>
+      <c r="S42" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>650</v>
       </c>
@@ -38967,11 +39481,23 @@
       <c r="H43">
         <v>1</v>
       </c>
+      <c r="N43" t="s">
+        <v>1282</v>
+      </c>
       <c r="O43">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q43">
+        <v>6</v>
+      </c>
+      <c r="R43">
+        <v>0.25</v>
+      </c>
+      <c r="S43" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>651</v>
       </c>
@@ -38996,11 +39522,23 @@
       <c r="H44">
         <v>1</v>
       </c>
+      <c r="N44" t="s">
+        <v>1282</v>
+      </c>
       <c r="O44">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q44">
+        <v>6</v>
+      </c>
+      <c r="R44">
+        <v>0.25</v>
+      </c>
+      <c r="S44" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>652</v>
       </c>
@@ -39025,11 +39563,23 @@
       <c r="H45">
         <v>1</v>
       </c>
+      <c r="N45" t="s">
+        <v>1282</v>
+      </c>
       <c r="O45">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q45">
+        <v>6</v>
+      </c>
+      <c r="R45">
+        <v>0.25</v>
+      </c>
+      <c r="S45" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>653</v>
       </c>
@@ -39054,11 +39604,23 @@
       <c r="H46">
         <v>1</v>
       </c>
+      <c r="N46" t="s">
+        <v>1282</v>
+      </c>
       <c r="O46">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q46">
+        <v>6</v>
+      </c>
+      <c r="R46">
+        <v>0.25</v>
+      </c>
+      <c r="S46" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>654</v>
       </c>
@@ -39083,11 +39645,23 @@
       <c r="H47">
         <v>1</v>
       </c>
+      <c r="N47" t="s">
+        <v>1282</v>
+      </c>
       <c r="O47">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q47">
+        <v>6</v>
+      </c>
+      <c r="R47">
+        <v>0.25</v>
+      </c>
+      <c r="S47" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>655</v>
       </c>
@@ -39112,11 +39686,23 @@
       <c r="H48">
         <v>1</v>
       </c>
+      <c r="N48" t="s">
+        <v>1282</v>
+      </c>
       <c r="O48">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q48">
+        <v>6</v>
+      </c>
+      <c r="R48">
+        <v>0.25</v>
+      </c>
+      <c r="S48" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>656</v>
       </c>
@@ -39141,11 +39727,23 @@
       <c r="H49">
         <v>1</v>
       </c>
+      <c r="N49" t="s">
+        <v>1282</v>
+      </c>
       <c r="O49">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q49">
+        <v>6</v>
+      </c>
+      <c r="R49">
+        <v>0.25</v>
+      </c>
+      <c r="S49" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>657</v>
       </c>
@@ -39170,11 +39768,23 @@
       <c r="H50">
         <v>1</v>
       </c>
+      <c r="N50" t="s">
+        <v>1282</v>
+      </c>
       <c r="O50">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q50">
+        <v>6</v>
+      </c>
+      <c r="R50">
+        <v>0.25</v>
+      </c>
+      <c r="S50" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>658</v>
       </c>
@@ -39199,11 +39809,23 @@
       <c r="H51">
         <v>1</v>
       </c>
+      <c r="N51" t="s">
+        <v>1282</v>
+      </c>
       <c r="O51">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q51">
+        <v>6</v>
+      </c>
+      <c r="R51">
+        <v>0.25</v>
+      </c>
+      <c r="S51" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>659</v>
       </c>
@@ -39228,11 +39850,23 @@
       <c r="H52">
         <v>1</v>
       </c>
+      <c r="N52" t="s">
+        <v>1282</v>
+      </c>
       <c r="O52">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q52">
+        <v>6</v>
+      </c>
+      <c r="R52">
+        <v>0.25</v>
+      </c>
+      <c r="S52" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>660</v>
       </c>
@@ -39257,11 +39891,23 @@
       <c r="H53">
         <v>1</v>
       </c>
+      <c r="N53" t="s">
+        <v>1282</v>
+      </c>
       <c r="O53">
         <v>100</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q53">
+        <v>6</v>
+      </c>
+      <c r="R53">
+        <v>0.25</v>
+      </c>
+      <c r="S53" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>661</v>
       </c>
@@ -39286,11 +39932,23 @@
       <c r="H54">
         <v>1</v>
       </c>
+      <c r="N54" t="s">
+        <v>1282</v>
+      </c>
       <c r="O54">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q54">
+        <v>6</v>
+      </c>
+      <c r="R54">
+        <v>0.25</v>
+      </c>
+      <c r="S54" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>662</v>
       </c>
@@ -39315,11 +39973,23 @@
       <c r="H55">
         <v>1</v>
       </c>
+      <c r="N55" t="s">
+        <v>1282</v>
+      </c>
       <c r="O55">
         <v>100</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q55">
+        <v>6</v>
+      </c>
+      <c r="R55">
+        <v>0.25</v>
+      </c>
+      <c r="S55" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>663</v>
       </c>
@@ -39344,11 +40014,23 @@
       <c r="H56">
         <v>1</v>
       </c>
+      <c r="N56" t="s">
+        <v>1282</v>
+      </c>
       <c r="O56">
         <v>100</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q56">
+        <v>6</v>
+      </c>
+      <c r="R56">
+        <v>0.25</v>
+      </c>
+      <c r="S56" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>664</v>
       </c>
@@ -39373,11 +40055,23 @@
       <c r="H57">
         <v>1</v>
       </c>
+      <c r="N57" t="s">
+        <v>1282</v>
+      </c>
       <c r="O57">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q57">
+        <v>6</v>
+      </c>
+      <c r="R57">
+        <v>0.25</v>
+      </c>
+      <c r="S57" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>665</v>
       </c>
@@ -39402,11 +40096,23 @@
       <c r="H58">
         <v>1</v>
       </c>
+      <c r="N58" t="s">
+        <v>1282</v>
+      </c>
       <c r="O58">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q58">
+        <v>6</v>
+      </c>
+      <c r="R58">
+        <v>0.25</v>
+      </c>
+      <c r="S58" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>666</v>
       </c>
@@ -39431,11 +40137,23 @@
       <c r="H59">
         <v>1</v>
       </c>
+      <c r="N59" t="s">
+        <v>1282</v>
+      </c>
       <c r="O59">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q59">
+        <v>6</v>
+      </c>
+      <c r="R59">
+        <v>0.25</v>
+      </c>
+      <c r="S59" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>667</v>
       </c>
@@ -39460,11 +40178,23 @@
       <c r="H60">
         <v>1</v>
       </c>
+      <c r="N60" t="s">
+        <v>1282</v>
+      </c>
       <c r="O60">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q60">
+        <v>6</v>
+      </c>
+      <c r="R60">
+        <v>0.25</v>
+      </c>
+      <c r="S60" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>668</v>
       </c>
@@ -39489,11 +40219,23 @@
       <c r="H61">
         <v>1</v>
       </c>
+      <c r="N61" t="s">
+        <v>1282</v>
+      </c>
       <c r="O61">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q61">
+        <v>6</v>
+      </c>
+      <c r="R61">
+        <v>0.25</v>
+      </c>
+      <c r="S61" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>669</v>
       </c>
@@ -39518,11 +40260,23 @@
       <c r="H62">
         <v>1</v>
       </c>
+      <c r="N62" t="s">
+        <v>1282</v>
+      </c>
       <c r="O62">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q62">
+        <v>6</v>
+      </c>
+      <c r="R62">
+        <v>0.25</v>
+      </c>
+      <c r="S62" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>670</v>
       </c>
@@ -39547,11 +40301,23 @@
       <c r="H63">
         <v>1</v>
       </c>
+      <c r="N63" t="s">
+        <v>1282</v>
+      </c>
       <c r="O63">
         <v>100</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q63">
+        <v>6</v>
+      </c>
+      <c r="R63">
+        <v>0.25</v>
+      </c>
+      <c r="S63" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>671</v>
       </c>
@@ -39576,11 +40342,23 @@
       <c r="H64">
         <v>1</v>
       </c>
+      <c r="N64" t="s">
+        <v>1282</v>
+      </c>
       <c r="O64">
         <v>100</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q64">
+        <v>6</v>
+      </c>
+      <c r="R64">
+        <v>0.25</v>
+      </c>
+      <c r="S64" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>672</v>
       </c>
@@ -39605,11 +40383,23 @@
       <c r="H65">
         <v>1</v>
       </c>
+      <c r="N65" t="s">
+        <v>1282</v>
+      </c>
       <c r="O65">
         <v>100</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q65">
+        <v>6</v>
+      </c>
+      <c r="R65">
+        <v>0.25</v>
+      </c>
+      <c r="S65" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>673</v>
       </c>
@@ -39634,11 +40424,23 @@
       <c r="H66">
         <v>1</v>
       </c>
+      <c r="N66" t="s">
+        <v>1282</v>
+      </c>
       <c r="O66">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q66">
+        <v>6</v>
+      </c>
+      <c r="R66">
+        <v>0.25</v>
+      </c>
+      <c r="S66" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>674</v>
       </c>
@@ -39663,11 +40465,23 @@
       <c r="H67">
         <v>1</v>
       </c>
+      <c r="N67" t="s">
+        <v>1282</v>
+      </c>
       <c r="O67">
         <v>100</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q67">
+        <v>6</v>
+      </c>
+      <c r="R67">
+        <v>0.25</v>
+      </c>
+      <c r="S67" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>675</v>
       </c>
@@ -39692,11 +40506,23 @@
       <c r="H68">
         <v>1</v>
       </c>
+      <c r="N68" t="s">
+        <v>1282</v>
+      </c>
       <c r="O68">
         <v>100</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q68">
+        <v>6</v>
+      </c>
+      <c r="R68">
+        <v>0.25</v>
+      </c>
+      <c r="S68" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>676</v>
       </c>
@@ -39721,11 +40547,23 @@
       <c r="H69">
         <v>1</v>
       </c>
+      <c r="N69" t="s">
+        <v>1282</v>
+      </c>
       <c r="O69">
         <v>100</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q69">
+        <v>6</v>
+      </c>
+      <c r="R69">
+        <v>0.25</v>
+      </c>
+      <c r="S69" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>677</v>
       </c>
@@ -39750,11 +40588,23 @@
       <c r="H70">
         <v>1</v>
       </c>
+      <c r="N70" t="s">
+        <v>1282</v>
+      </c>
       <c r="O70">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q70">
+        <v>6</v>
+      </c>
+      <c r="R70">
+        <v>0.25</v>
+      </c>
+      <c r="S70" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>678</v>
       </c>
@@ -39779,11 +40629,23 @@
       <c r="H71">
         <v>1</v>
       </c>
+      <c r="N71" t="s">
+        <v>1282</v>
+      </c>
       <c r="O71">
         <v>100</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q71">
+        <v>6</v>
+      </c>
+      <c r="R71">
+        <v>0.25</v>
+      </c>
+      <c r="S71" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>679</v>
       </c>
@@ -39808,11 +40670,23 @@
       <c r="H72">
         <v>1</v>
       </c>
+      <c r="N72" t="s">
+        <v>1282</v>
+      </c>
       <c r="O72">
         <v>100</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q72">
+        <v>6</v>
+      </c>
+      <c r="R72">
+        <v>0.25</v>
+      </c>
+      <c r="S72" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>680</v>
       </c>
@@ -39837,11 +40711,23 @@
       <c r="H73">
         <v>1</v>
       </c>
+      <c r="N73" t="s">
+        <v>1282</v>
+      </c>
       <c r="O73">
         <v>100</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q73">
+        <v>6</v>
+      </c>
+      <c r="R73">
+        <v>0.25</v>
+      </c>
+      <c r="S73" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>681</v>
       </c>
@@ -39866,11 +40752,23 @@
       <c r="H74">
         <v>1</v>
       </c>
+      <c r="N74" t="s">
+        <v>1282</v>
+      </c>
       <c r="O74">
         <v>100</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q74">
+        <v>6</v>
+      </c>
+      <c r="R74">
+        <v>0.25</v>
+      </c>
+      <c r="S74" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>682</v>
       </c>
@@ -39895,11 +40793,23 @@
       <c r="H75">
         <v>1</v>
       </c>
+      <c r="N75" t="s">
+        <v>1282</v>
+      </c>
       <c r="O75">
         <v>100</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q75">
+        <v>6</v>
+      </c>
+      <c r="R75">
+        <v>0.25</v>
+      </c>
+      <c r="S75" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>683</v>
       </c>
@@ -39924,11 +40834,23 @@
       <c r="H76">
         <v>1</v>
       </c>
+      <c r="N76" t="s">
+        <v>1282</v>
+      </c>
       <c r="O76">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q76">
+        <v>6</v>
+      </c>
+      <c r="R76">
+        <v>0.25</v>
+      </c>
+      <c r="S76" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>684</v>
       </c>
@@ -39953,11 +40875,23 @@
       <c r="H77">
         <v>1</v>
       </c>
+      <c r="N77" t="s">
+        <v>1282</v>
+      </c>
       <c r="O77">
         <v>100</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q77">
+        <v>6</v>
+      </c>
+      <c r="R77">
+        <v>0.25</v>
+      </c>
+      <c r="S77" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>685</v>
       </c>
@@ -39982,11 +40916,23 @@
       <c r="H78">
         <v>1</v>
       </c>
+      <c r="N78" t="s">
+        <v>1282</v>
+      </c>
       <c r="O78">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q78">
+        <v>6</v>
+      </c>
+      <c r="R78">
+        <v>0.25</v>
+      </c>
+      <c r="S78" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>686</v>
       </c>
@@ -40011,11 +40957,23 @@
       <c r="H79">
         <v>1</v>
       </c>
+      <c r="N79" t="s">
+        <v>1282</v>
+      </c>
       <c r="O79">
         <v>100</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q79">
+        <v>6</v>
+      </c>
+      <c r="R79">
+        <v>0.25</v>
+      </c>
+      <c r="S79" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>687</v>
       </c>
@@ -40040,11 +40998,23 @@
       <c r="H80">
         <v>1</v>
       </c>
+      <c r="N80" t="s">
+        <v>1282</v>
+      </c>
       <c r="O80">
         <v>100</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q80">
+        <v>6</v>
+      </c>
+      <c r="R80">
+        <v>0.25</v>
+      </c>
+      <c r="S80" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>688</v>
       </c>
@@ -40069,11 +41039,23 @@
       <c r="H81">
         <v>1</v>
       </c>
+      <c r="N81" t="s">
+        <v>1282</v>
+      </c>
       <c r="O81">
         <v>100</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q81">
+        <v>6</v>
+      </c>
+      <c r="R81">
+        <v>0.25</v>
+      </c>
+      <c r="S81" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>689</v>
       </c>
@@ -40098,11 +41080,23 @@
       <c r="H82">
         <v>1</v>
       </c>
+      <c r="N82" t="s">
+        <v>1282</v>
+      </c>
       <c r="O82">
         <v>100</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q82">
+        <v>6</v>
+      </c>
+      <c r="R82">
+        <v>0.25</v>
+      </c>
+      <c r="S82" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>690</v>
       </c>
@@ -40127,11 +41121,23 @@
       <c r="H83">
         <v>1</v>
       </c>
+      <c r="N83" t="s">
+        <v>1282</v>
+      </c>
       <c r="O83">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q83">
+        <v>6</v>
+      </c>
+      <c r="R83">
+        <v>0.25</v>
+      </c>
+      <c r="S83" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>691</v>
       </c>
@@ -40156,11 +41162,23 @@
       <c r="H84">
         <v>1</v>
       </c>
+      <c r="N84" t="s">
+        <v>1282</v>
+      </c>
       <c r="O84">
         <v>100</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q84">
+        <v>6</v>
+      </c>
+      <c r="R84">
+        <v>0.25</v>
+      </c>
+      <c r="S84" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>692</v>
       </c>
@@ -40185,11 +41203,23 @@
       <c r="H85">
         <v>1</v>
       </c>
+      <c r="N85" t="s">
+        <v>1282</v>
+      </c>
       <c r="O85">
         <v>100</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q85">
+        <v>6</v>
+      </c>
+      <c r="R85">
+        <v>0.25</v>
+      </c>
+      <c r="S85" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>693</v>
       </c>
@@ -40214,11 +41244,23 @@
       <c r="H86">
         <v>1</v>
       </c>
+      <c r="N86" t="s">
+        <v>1282</v>
+      </c>
       <c r="O86">
         <v>100</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q86">
+        <v>6</v>
+      </c>
+      <c r="R86">
+        <v>0.25</v>
+      </c>
+      <c r="S86" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>694</v>
       </c>
@@ -40243,11 +41285,23 @@
       <c r="H87">
         <v>1</v>
       </c>
+      <c r="N87" t="s">
+        <v>1282</v>
+      </c>
       <c r="O87">
         <v>100</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q87">
+        <v>6</v>
+      </c>
+      <c r="R87">
+        <v>0.25</v>
+      </c>
+      <c r="S87" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>695</v>
       </c>
@@ -40272,11 +41326,23 @@
       <c r="H88">
         <v>1</v>
       </c>
+      <c r="N88" t="s">
+        <v>1282</v>
+      </c>
       <c r="O88">
         <v>100</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q88">
+        <v>6</v>
+      </c>
+      <c r="R88">
+        <v>0.25</v>
+      </c>
+      <c r="S88" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>696</v>
       </c>
@@ -40301,11 +41367,23 @@
       <c r="H89">
         <v>1</v>
       </c>
+      <c r="N89" t="s">
+        <v>1282</v>
+      </c>
       <c r="O89">
         <v>100</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q89">
+        <v>6</v>
+      </c>
+      <c r="R89">
+        <v>0.25</v>
+      </c>
+      <c r="S89" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>697</v>
       </c>
@@ -40330,11 +41408,23 @@
       <c r="H90">
         <v>1</v>
       </c>
+      <c r="N90" t="s">
+        <v>1282</v>
+      </c>
       <c r="O90">
         <v>100</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q90">
+        <v>6</v>
+      </c>
+      <c r="R90">
+        <v>0.25</v>
+      </c>
+      <c r="S90" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>698</v>
       </c>
@@ -40359,11 +41449,23 @@
       <c r="H91">
         <v>1</v>
       </c>
+      <c r="N91" t="s">
+        <v>1282</v>
+      </c>
       <c r="O91">
         <v>100</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q91">
+        <v>6</v>
+      </c>
+      <c r="R91">
+        <v>0.25</v>
+      </c>
+      <c r="S91" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>699</v>
       </c>
@@ -40388,11 +41490,23 @@
       <c r="H92">
         <v>1</v>
       </c>
+      <c r="N92" t="s">
+        <v>1282</v>
+      </c>
       <c r="O92">
         <v>100</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q92">
+        <v>6</v>
+      </c>
+      <c r="R92">
+        <v>0.25</v>
+      </c>
+      <c r="S92" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>700</v>
       </c>
@@ -40417,11 +41531,23 @@
       <c r="H93">
         <v>1</v>
       </c>
+      <c r="N93" t="s">
+        <v>1282</v>
+      </c>
       <c r="O93">
         <v>100</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q93">
+        <v>6</v>
+      </c>
+      <c r="R93">
+        <v>0.25</v>
+      </c>
+      <c r="S93" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>701</v>
       </c>
@@ -40446,11 +41572,23 @@
       <c r="H94">
         <v>1</v>
       </c>
+      <c r="N94" t="s">
+        <v>1282</v>
+      </c>
       <c r="O94">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q94">
+        <v>6</v>
+      </c>
+      <c r="R94">
+        <v>0.25</v>
+      </c>
+      <c r="S94" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>702</v>
       </c>
@@ -40475,11 +41613,23 @@
       <c r="H95">
         <v>1</v>
       </c>
+      <c r="N95" t="s">
+        <v>1282</v>
+      </c>
       <c r="O95">
         <v>100</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q95">
+        <v>6</v>
+      </c>
+      <c r="R95">
+        <v>0.25</v>
+      </c>
+      <c r="S95" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>703</v>
       </c>
@@ -40504,11 +41654,23 @@
       <c r="H96">
         <v>1</v>
       </c>
+      <c r="N96" t="s">
+        <v>1282</v>
+      </c>
       <c r="O96">
         <v>100</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q96">
+        <v>6</v>
+      </c>
+      <c r="R96">
+        <v>0.25</v>
+      </c>
+      <c r="S96" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>704</v>
       </c>
@@ -40533,11 +41695,23 @@
       <c r="H97">
         <v>1</v>
       </c>
+      <c r="N97" t="s">
+        <v>1282</v>
+      </c>
       <c r="O97">
         <v>100</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q97">
+        <v>6</v>
+      </c>
+      <c r="R97">
+        <v>0.25</v>
+      </c>
+      <c r="S97" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>705</v>
       </c>
@@ -40562,11 +41736,23 @@
       <c r="H98">
         <v>1</v>
       </c>
+      <c r="N98" t="s">
+        <v>1282</v>
+      </c>
       <c r="O98">
         <v>100</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q98">
+        <v>6</v>
+      </c>
+      <c r="R98">
+        <v>0.25</v>
+      </c>
+      <c r="S98" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>706</v>
       </c>
@@ -40591,11 +41777,23 @@
       <c r="H99">
         <v>1</v>
       </c>
+      <c r="N99" t="s">
+        <v>1282</v>
+      </c>
       <c r="O99">
         <v>100</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q99">
+        <v>6</v>
+      </c>
+      <c r="R99">
+        <v>0.25</v>
+      </c>
+      <c r="S99" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>707</v>
       </c>
@@ -40620,11 +41818,23 @@
       <c r="H100">
         <v>1</v>
       </c>
+      <c r="N100" t="s">
+        <v>1282</v>
+      </c>
       <c r="O100">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q100">
+        <v>6</v>
+      </c>
+      <c r="R100">
+        <v>0.25</v>
+      </c>
+      <c r="S100" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>708</v>
       </c>
@@ -40649,11 +41859,23 @@
       <c r="H101">
         <v>1</v>
       </c>
+      <c r="N101" t="s">
+        <v>1282</v>
+      </c>
       <c r="O101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q101">
+        <v>6</v>
+      </c>
+      <c r="R101">
+        <v>0.25</v>
+      </c>
+      <c r="S101" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>709</v>
       </c>
@@ -40678,11 +41900,23 @@
       <c r="H102">
         <v>1</v>
       </c>
+      <c r="N102" t="s">
+        <v>1282</v>
+      </c>
       <c r="O102">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q102">
+        <v>6</v>
+      </c>
+      <c r="R102">
+        <v>0.25</v>
+      </c>
+      <c r="S102" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>710</v>
       </c>
@@ -40707,11 +41941,23 @@
       <c r="H103">
         <v>1</v>
       </c>
+      <c r="N103" t="s">
+        <v>1282</v>
+      </c>
       <c r="O103">
         <v>100</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q103">
+        <v>6</v>
+      </c>
+      <c r="R103">
+        <v>0.25</v>
+      </c>
+      <c r="S103" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>711</v>
       </c>
@@ -40736,11 +41982,23 @@
       <c r="H104">
         <v>1</v>
       </c>
+      <c r="N104" t="s">
+        <v>1282</v>
+      </c>
       <c r="O104">
         <v>100</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q104">
+        <v>6</v>
+      </c>
+      <c r="R104">
+        <v>0.25</v>
+      </c>
+      <c r="S104" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>712</v>
       </c>
@@ -40765,11 +42023,23 @@
       <c r="H105">
         <v>1</v>
       </c>
+      <c r="N105" t="s">
+        <v>1282</v>
+      </c>
       <c r="O105">
         <v>100</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q105">
+        <v>6</v>
+      </c>
+      <c r="R105">
+        <v>0.25</v>
+      </c>
+      <c r="S105" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>713</v>
       </c>
@@ -40794,11 +42064,23 @@
       <c r="H106">
         <v>1</v>
       </c>
+      <c r="N106" t="s">
+        <v>1282</v>
+      </c>
       <c r="O106">
         <v>100</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q106">
+        <v>6</v>
+      </c>
+      <c r="R106">
+        <v>0.25</v>
+      </c>
+      <c r="S106" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>714</v>
       </c>
@@ -40823,11 +42105,23 @@
       <c r="H107">
         <v>1</v>
       </c>
+      <c r="N107" t="s">
+        <v>1282</v>
+      </c>
       <c r="O107">
         <v>100</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q107">
+        <v>6</v>
+      </c>
+      <c r="R107">
+        <v>0.25</v>
+      </c>
+      <c r="S107" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>715</v>
       </c>
@@ -40852,11 +42146,23 @@
       <c r="H108">
         <v>1</v>
       </c>
+      <c r="N108" t="s">
+        <v>1282</v>
+      </c>
       <c r="O108">
         <v>100</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q108">
+        <v>6</v>
+      </c>
+      <c r="R108">
+        <v>0.25</v>
+      </c>
+      <c r="S108" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>716</v>
       </c>
@@ -40881,11 +42187,23 @@
       <c r="H109">
         <v>1</v>
       </c>
+      <c r="N109" t="s">
+        <v>1282</v>
+      </c>
       <c r="O109">
         <v>100</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q109">
+        <v>6</v>
+      </c>
+      <c r="R109">
+        <v>0.25</v>
+      </c>
+      <c r="S109" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>717</v>
       </c>
@@ -40910,11 +42228,23 @@
       <c r="H110">
         <v>1</v>
       </c>
+      <c r="N110" t="s">
+        <v>1282</v>
+      </c>
       <c r="O110">
         <v>100</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q110">
+        <v>6</v>
+      </c>
+      <c r="R110">
+        <v>0.25</v>
+      </c>
+      <c r="S110" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>718</v>
       </c>
@@ -40939,11 +42269,23 @@
       <c r="H111">
         <v>1</v>
       </c>
+      <c r="N111" t="s">
+        <v>1282</v>
+      </c>
       <c r="O111">
         <v>100</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q111">
+        <v>6</v>
+      </c>
+      <c r="R111">
+        <v>0.25</v>
+      </c>
+      <c r="S111" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>719</v>
       </c>
@@ -40968,11 +42310,23 @@
       <c r="H112">
         <v>1</v>
       </c>
+      <c r="N112" t="s">
+        <v>1282</v>
+      </c>
       <c r="O112">
         <v>100</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q112">
+        <v>6</v>
+      </c>
+      <c r="R112">
+        <v>0.25</v>
+      </c>
+      <c r="S112" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>720</v>
       </c>
@@ -40997,11 +42351,23 @@
       <c r="H113">
         <v>1</v>
       </c>
+      <c r="N113" t="s">
+        <v>1282</v>
+      </c>
       <c r="O113">
         <v>100</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q113">
+        <v>6</v>
+      </c>
+      <c r="R113">
+        <v>0.25</v>
+      </c>
+      <c r="S113" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>721</v>
       </c>
@@ -41026,11 +42392,24 @@
       <c r="H114">
         <v>1</v>
       </c>
+      <c r="N114" t="s">
+        <v>1282</v>
+      </c>
       <c r="O114">
         <v>100</v>
       </c>
+      <c r="Q114">
+        <v>6</v>
+      </c>
+      <c r="R114">
+        <v>0.25</v>
+      </c>
+      <c r="S114" t="s">
+        <v>1283</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
